--- a/Asistencias/Reportes_Estadisticas/estadisticas_asistencia.xlsx
+++ b/Asistencias/Reportes_Estadisticas/estadisticas_asistencia.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,17 +474,121 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aldair Rivera</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202500001</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>100.00%</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fasdfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>202500002</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>zdgfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>202500003</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>weradfasd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202500004</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -499,7 +603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +613,7 @@
   <cols>
     <col width="34.8" customWidth="1" min="1" max="1"/>
     <col width="13.2" customWidth="1" min="2" max="2"/>
-    <col width="20.4" customWidth="1" min="3" max="3"/>
+    <col width="28.8" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,7 +646,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ninguna</t>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aldair Rivera</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202500001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fasdfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>202500002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>zdgfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>202500003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-06-17, 2025-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>weradfasd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202500004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-06-17, 2025-06-18</t>
         </is>
       </c>
     </row>
